--- a/docs/Test Report.xlsx
+++ b/docs/Test Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem_Web\fullstack-vitejs-books\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\OneDrive\Documents\GitHub\fullstack-vitejs-books\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E9466-1CF7-4787-9A00-AED25161DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2F5A8-DEC0-42C3-B080-58FFC8BD7CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,19 +21,6 @@
     <definedName name="Test_types">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -183,9 +170,6 @@
     <t>Number of defects remain open</t>
   </si>
   <si>
-    <t>Fahasa Online Bookstore System</t>
-  </si>
-  <si>
     <t>FAHASA_WEB_2025</t>
   </si>
   <si>
@@ -241,6 +225,9 @@
   </si>
   <si>
     <t>Nguyễn Hoàng Hiếu, Lâm Diệu Quang</t>
+  </si>
+  <si>
+    <t>Website Fahasa bán sách</t>
   </si>
 </sst>
 </file>
@@ -546,13 +533,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -565,16 +560,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1787,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1819,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -29390,7 +29377,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29407,15 +29394,15 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -29441,10 +29428,10 @@
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>32</v>
+      <c r="D2" s="34" t="s">
+        <v>51</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -29473,8 +29460,8 @@
       <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -29503,10 +29490,10 @@
       <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="35">
         <v>45973</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -29535,10 +29522,10 @@
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>51</v>
+      <c r="D5" s="34" t="s">
+        <v>50</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -29620,7 +29607,7 @@
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
@@ -29678,7 +29665,7 @@
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="24"/>
@@ -29709,7 +29696,7 @@
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -29739,7 +29726,7 @@
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -29769,7 +29756,7 @@
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -29799,7 +29786,7 @@
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -29829,7 +29816,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -29859,7 +29846,7 @@
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -29915,14 +29902,14 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="34" t="s">
-        <v>36</v>
+      <c r="B18" s="38" t="s">
+        <v>35</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -29954,10 +29941,10 @@
       <c r="D19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="30"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -29985,13 +29972,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="18">
         <v>72</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="30"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -30019,13 +30006,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="18">
         <v>72</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="30"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -30053,13 +30040,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="18">
         <v>70</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="30"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -30087,13 +30074,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="18">
         <v>2</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="30"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -30121,13 +30108,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="18">
         <v>0</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="30"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -30155,7 +30142,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="18">
         <v>0</v>
@@ -30185,15 +30172,15 @@
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="20">
         <v>2</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="30"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -30329,15 +30316,15 @@
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
-      <c r="B31" s="34" t="s">
-        <v>37</v>
+      <c r="B31" s="38" t="s">
+        <v>36</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="30"/>
       <c r="H31" s="12"/>
       <c r="I31" s="10"/>
@@ -30462,7 +30449,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -57517,11 +57504,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="B18:G18"/>
@@ -57533,6 +57515,11 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/docs/Test Report.xlsx
+++ b/docs/Test Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\OneDrive\Documents\GitHub\fullstack-vitejs-books\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2F5A8-DEC0-42C3-B080-58FFC8BD7CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6934D34-E006-4176-9C58-36877BBC289B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>Number of defects remain open</t>
   </si>
   <si>
-    <t>FAHASA_WEB_2025</t>
-  </si>
-  <si>
     <t>1. Test Execution Summary</t>
   </si>
   <si>
@@ -183,12 +180,6 @@
   </si>
   <si>
     <t>2.3 Defect Summary</t>
-  </si>
-  <si>
-    <t>Frontend: ReactJS</t>
-  </si>
-  <si>
-    <t>Backend: Spring Boot 3</t>
   </si>
   <si>
     <t>Database: MySQL</t>
@@ -228,6 +219,15 @@
   </si>
   <si>
     <t>Website Fahasa bán sách</t>
+  </si>
+  <si>
+    <t>FAHASA_2025</t>
+  </si>
+  <si>
+    <t>Frontend: Vite Reactjs TypeScript</t>
+  </si>
+  <si>
+    <t>Backend: Spring Boot Maven</t>
   </si>
 </sst>
 </file>
@@ -585,96 +585,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="800" b="1" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="800" b="1" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Test Case Execution Summary</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -803,7 +721,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5005-4A62-A8B3-F62812567256}"/>
+              <c16:uniqueId val="{00000000-29A0-4E0D-9005-AE98B9A6F5E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -889,7 +807,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5005-4A62-A8B3-F62812567256}"/>
+              <c16:uniqueId val="{00000001-29A0-4E0D-9005-AE98B9A6F5E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1076,55 +994,70 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3800475" cy="3171825"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Chart 0">
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1293495</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E71114C-E2ED-9103-B0DB-0E6ECD428860}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="281940" y="6598920"/>
+          <a:ext cx="3800475" cy="3171825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3733800" cy="3181350"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2" descr="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4" descr="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58E44F0-3241-42A3-8E6E-1BB5AEE81432}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1139,50 +1072,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="2" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D5090D-36EB-036A-12BA-C9893BCBC4EB}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="4925112" cy="4048690"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1774,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1806,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -29376,8 +29265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29429,7 +29318,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="10"/>
@@ -29523,7 +29412,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="10"/>
@@ -29607,7 +29496,7 @@
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
@@ -29665,7 +29554,7 @@
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="24"/>
@@ -29696,7 +29585,7 @@
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -29726,7 +29615,7 @@
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -29756,7 +29645,7 @@
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -29786,7 +29675,7 @@
       <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -29816,7 +29705,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -29846,7 +29735,7 @@
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -29903,7 +29792,7 @@
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -29972,7 +29861,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="18">
         <v>72</v>
@@ -30006,7 +29895,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" s="18">
         <v>72</v>
@@ -30040,7 +29929,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="18">
         <v>70</v>
@@ -30074,7 +29963,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="18">
         <v>2</v>
@@ -30108,7 +29997,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="18">
         <v>0</v>
@@ -30142,7 +30031,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="18">
         <v>0</v>
@@ -30317,7 +30206,7 @@
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="43" t="s">
@@ -30449,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
